--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://electrocomponents-my.sharepoint.com/personal/teofil_raicu_rsgroup_com/Documents/Documents/PO Processing Perfomer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A840AED7-AEDD-4571-924C-5444A87EE3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159E7D1A-BF9B-49A8-ABA6-D8FEBA389C17}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A840AED7-AEDD-4571-924C-5444A87EE3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB3BA5A-3B41-487C-87E1-0A84FE01E6C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <t>PO_IgnorePODuplicates</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_test</t>
+    <t>OrderManagement_PostDU</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4257,7 +4257,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4277,12 +4277,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4302,7 +4302,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://electrocomponents-my.sharepoint.com/personal/teofil_raicu_rsgroup_com/Documents/Documents/PO Processing Perfomer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A840AED7-AEDD-4571-924C-5444A87EE3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB3BA5A-3B41-487C-87E1-0A84FE01E6C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C6F91-2BBB-4281-8218-8F0FC48276ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -236,13 +236,28 @@
     <t>PO_SAP_IGNOREANYSAVING</t>
   </si>
   <si>
-    <t>PO_ErrorMailDestination</t>
-  </si>
-  <si>
     <t>PO_IgnorePODuplicates</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU</t>
+    <t>PO_FR_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>PO_DE_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>PO_UK_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>FR_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>UK_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>DE_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>OrderManagement_PostDU_test</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,7 +770,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -809,7 +820,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -3008,10 +3019,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3268,14 +3279,28 @@
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
@@ -4244,7 +4269,6 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C6F91-2BBB-4281-8218-8F0FC48276ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CC3810-F0A9-4989-9CCE-1F7F9C6780BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
     <t>DE_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_test</t>
+    <t>OrderManagement_PostDU</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4281,7 +4281,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4301,12 +4301,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4326,7 +4326,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CC3810-F0A9-4989-9CCE-1F7F9C6780BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802FF8B8-8766-4DA4-B4A5-A8D71EC7A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
     <t>DE_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU</t>
+    <t>OrderManagement_PostDU_test</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4281,7 +4281,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4301,12 +4301,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4326,7 +4326,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802FF8B8-8766-4DA4-B4A5-A8D71EC7A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD64EF-B7EE-4B8B-8159-0FC152B255C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,7 +257,7 @@
     <t>DE_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_test</t>
+    <t>OrderManagement_PostDU</t>
   </si>
 </sst>
 </file>
@@ -4281,7 +4281,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4301,12 +4301,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4326,7 +4326,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD64EF-B7EE-4B8B-8159-0FC152B255C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B01937-9D35-4819-9DC8-B614D17E5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -245,19 +245,19 @@
     <t>PO_DE_ErrorMailDestination</t>
   </si>
   <si>
-    <t>PO_UK_ErrorMailDestination</t>
-  </si>
-  <si>
     <t>FR_ErrorMailDestination</t>
   </si>
   <si>
-    <t>UK_ErrorMailDestination</t>
-  </si>
-  <si>
     <t>DE_ErrorMailDestination</t>
   </si>
   <si>
     <t>OrderManagement_PostDU</t>
+  </si>
+  <si>
+    <t>GB_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>PO_GB_ErrorMailDestination</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -820,7 +820,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -3287,15 +3287,15 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0999718\Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EBC57-666E-45ED-BFAD-0889CE68F861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42905A6B-61AB-4084-8F63-53D4E0BC67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -257,7 +257,10 @@
     <t>PO_GB_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_GB</t>
+    <t>OrderManagement_PostDU_FR</t>
+  </si>
+  <si>
+    <t>PO_SAPCredential2</t>
   </si>
 </sst>
 </file>
@@ -378,9 +381,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -428,9 +431,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -769,16 +772,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -826,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -836,7 +839,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1854,16 +1857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1900,7 +1903,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2028,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3021,16 +3024,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3154,7 +3157,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -4281,7 +4284,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4292,21 +4295,21 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4317,16 +4320,16 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B01937-9D35-4819-9DC8-B614D17E5819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EBC57-666E-45ED-BFAD-0889CE68F861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -251,13 +251,13 @@
     <t>DE_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU</t>
-  </si>
-  <si>
     <t>GB_ErrorMailDestination</t>
   </si>
   <si>
     <t>PO_GB_ErrorMailDestination</t>
+  </si>
+  <si>
+    <t>OrderManagement_PostDU_GB</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -820,7 +820,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
@@ -4281,7 +4281,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4301,12 +4301,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4326,7 +4326,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0999718\Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42905A6B-61AB-4084-8F63-53D4E0BC67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA09F6-5821-40FD-8902-DAA670CDC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,10 @@
     <t>PO_GB_ErrorMailDestination</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_FR</t>
-  </si>
-  <si>
     <t>PO_SAPCredential2</t>
+  </si>
+  <si>
+    <t>OrderManagement_PostDU_GB</t>
   </si>
 </sst>
 </file>
@@ -381,9 +381,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -431,9 +431,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -772,16 +772,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -823,13 +823,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1861,12 +1861,12 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1903,7 +1903,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3024,16 +3024,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3157,7 +3157,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -4284,7 +4284,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4295,21 +4295,21 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4320,16 +4320,16 @@
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA09F6-5821-40FD-8902-DAA670CDC94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9638FDE8-60A4-467C-B1ED-34BFA691531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <t>PO_SAPCredential2</t>
   </si>
   <si>
-    <t>OrderManagement_PostDU_GB</t>
+    <t>OrderManagement_PostDU</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +4284,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4304,12 +4304,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4329,7 +4329,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RSComponentsPerformer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9638FDE8-60A4-467C-B1ED-34BFA691531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B6181-591C-4432-8743-DD518D3F0B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4284,7 +4284,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4304,12 +4304,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4329,7 +4329,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
